--- a/Document/systemTest/Player.xlsx
+++ b/Document/systemTest/Player.xlsx
@@ -9,13 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name=" Login with Account" sheetId="2" r:id="rId1"/>
-    <sheet name="Login with google plus" sheetId="1" r:id="rId2"/>
-    <sheet name="Login with facebook" sheetId="3" r:id="rId3"/>
+    <sheet name="Login with facebook" sheetId="3" r:id="rId2"/>
+    <sheet name="Login with google plus" sheetId="1" r:id="rId3"/>
     <sheet name="Forget password" sheetId="4" r:id="rId4"/>
+    <sheet name="Edit Profile" sheetId="5" r:id="rId5"/>
+    <sheet name="View Profile" sheetId="6" r:id="rId6"/>
+    <sheet name="View History" sheetId="7" r:id="rId7"/>
+    <sheet name="View Top Point" sheetId="10" r:id="rId8"/>
+    <sheet name="View char of bitcoin prices" sheetId="11" r:id="rId9"/>
+    <sheet name="Logout" sheetId="8" r:id="rId10"/>
+    <sheet name="Search challenge games" sheetId="9" r:id="rId11"/>
+    <sheet name="Chat" sheetId="12" r:id="rId12"/>
+    <sheet name="Get notification" sheetId="13" r:id="rId13"/>
+    <sheet name="Play traditional betting game" sheetId="14" r:id="rId14"/>
+    <sheet name="Change password" sheetId="20" r:id="rId15"/>
+    <sheet name="Play Yes_No game" sheetId="15" r:id="rId16"/>
+    <sheet name="Play Multi game" sheetId="16" r:id="rId17"/>
+    <sheet name="Create Yes_No betting game" sheetId="17" r:id="rId18"/>
+    <sheet name="Create Multi betting game" sheetId="18" r:id="rId19"/>
+    <sheet name="View list of game participant" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -72,7 +88,513 @@
 </comments>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -210,8 +732,238 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>Chinh Vu Cong</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pass
+Fail
+Untested
+N/A</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="98">
   <si>
     <t>Module Code</t>
   </si>
@@ -283,12 +1035,6 @@
   </si>
   <si>
     <t>Login with account</t>
-  </si>
-  <si>
-    <t>1. Go to LowHope website
-2.Login
-3.Input Email
-4.Input password</t>
   </si>
   <si>
     <t>Login with google
@@ -326,6 +1072,293 @@
 5. Fill confirm password.
 6. Fill code.
 7. Click on "Đổi mật khẩu"</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results:"Chúc mừng bạn đã cập nhật thông tin thành công"</t>
+  </si>
+  <si>
+    <t>Cancel Edit profile form</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click icon profile.
+2. Select link" Sửa Thông Tin".
+3.Edit Information.
+4. Click on " Cập nhật"</t>
+  </si>
+  <si>
+    <t>On game page lowhope website
+1. Click on button "Đóng"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Close Edit profile form</t>
+  </si>
+  <si>
+    <t>View Profile</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click icon profile.
+2. Select link" Sửa Thông Tin".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results:View Profile successful.</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click icon profile.
+2. Select link "Lich Sử"</t>
+  </si>
+  <si>
+    <t>View History of player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results:View History of player successful.</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click on link "Đăng xuất"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Logout successful</t>
+  </si>
+  <si>
+    <t>Search challenge games</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click on link "Tìm kiếm thử thách". 
+2.Fill content in text field to search game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Search challenge games successful</t>
+  </si>
+  <si>
+    <t>View Top Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On game page Lowhope website
+1. Click icon "Top point" profile.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results:View Top point successful</t>
+  </si>
+  <si>
+    <t>View Char of bitcoin prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1 Player login lowhope website to go to game page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results:View Chart of bitcoins price successful</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Chat successful</t>
+  </si>
+  <si>
+    <t>Get notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Get notification sccuessful</t>
+  </si>
+  <si>
+    <t>Play traditional betting game</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click on icon     notification.
+2. Click on a notification to read details.
+3 Click "x" to close form</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click on icon
+.
+2. Fill chat content then enter to send.
+3. Click on "x" to close form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Play traditional betting games successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Play Yes_No betting games successful</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Fill estimating bitcoin prices.
+2. Click on button "Đặt Ngay".
+3.Wait time of game over. Player compare estimating bitcoin price with bitcoin price at time of game is over.
+4. Get notification (win or lose)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On game page Lowhope website
+ 1. Choose a Yes_No betting game on item infinite Slideshow. 
+2. click on item infinite Slideshow “Yes_No game”.
+3. Read question then choose "Yes" or "No".
+4.Click on"Đặt cược".
+5. Wait time of game over.
+6. Get notification (win or lose)
+</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+ 1. Choose a Multi betting game on item infinite Slideshow. 
+2. Click on item infinite Slideshow “Multi game”.
+3. Read question then select “under” or “upper” or “between” 
+4.Click on"Đặt cược".
+5. Wait time of game over.
+6. Get notification (win or lose)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Play Multi betting games successful</t>
+  </si>
+  <si>
+    <t>Create Yes_No betting game</t>
+  </si>
+  <si>
+    <t>1. Go to LowHope website
+2.Click đăng nhập
+3.Input Email
+4.Input password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check input
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results:Successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click on "Đăng nhập"
+</t>
+  </si>
+  <si>
+    <t>Close Form create yes_No betting game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Create Yes_No betting game successful</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click link "Tạo thử thách".
+2.Fill content to create.
+3. Click button "Đóng"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Close form create Yes_No betting game.</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click link "Tạo thử thách".
+3. Select "Đúng/Sai" form
+4.Fill content to create.
+5. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click link "Tạo thử thách".
+2. Select "Lựa chọn" form
+3.Fill content to create.
+4. Click button "Đóng"</t>
+  </si>
+  <si>
+    <t>Cancel profile form</t>
+  </si>
+  <si>
+    <t>Cancel top poimt form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Close top point form</t>
+  </si>
+  <si>
+    <t>On game page lowhope website
+1. Click icon "Top point" profile.
+2. Click on "x"</t>
+  </si>
+  <si>
+    <t>Cancel chat form</t>
+  </si>
+  <si>
+    <t>On game page lowhope website
+1. Click icon "" 
+2. Click on "x"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Close chat form</t>
+  </si>
+  <si>
+    <t>Create Multi betting game</t>
+  </si>
+  <si>
+    <t>Close Form create Multi betting game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Create Multi betting game successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Close form create Multi betting game.</t>
+  </si>
+  <si>
+    <t>View list of participants in a games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On game page Lowhope website
+1. Choose a betting game on item infinite Slideshow.
+2. Click on item infinite Slideshow. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results:View list of participants in a games</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>On game page Lowhope website
+1. Click icon profile.
+2. Select link" Change password"
+3.Change new password.
+4. Click on " Cập nhật"</t>
+  </si>
+  <si>
+    <t>Cancel change password form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Results: Close Change password form</t>
   </si>
 </sst>
 </file>
@@ -448,7 +1481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -637,13 +1670,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -661,9 +1777,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,9 +1786,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,9 +1794,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +1806,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -708,8 +1818,61 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -728,6 +1891,144 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>790576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419351" y="4067175"/>
+          <a:ext cx="209550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133725" y="5724525"/>
+          <a:ext cx="209550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>809625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1009650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="4114800"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -993,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1014,35 +2315,35 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="39">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -1057,103 +2358,382 @@
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1013,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="75">
+      <c r="A12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <f>COUNTIF(F$10:H$1013,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="C12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="60">
+      <c r="A13" s="36"/>
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="39">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="75">
-      <c r="A12" s="17" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="108" customHeight="1">
+      <c r="A12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="20">
-        <v>43078</v>
-      </c>
-      <c r="J12" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1171,40 +2751,1070 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="A1:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="135">
+      <c r="A12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="144" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="75">
+      <c r="A13" s="36"/>
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="190.5" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="210">
+      <c r="A12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1215,13 +3825,13 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1232,18 +3842,18 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="25.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1256,10 +3866,10 @@
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1267,23 +3877,23 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1013,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11"/>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1343,94 +3953,1722 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="63.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="119.25" customHeight="1">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:11" ht="139.5" customHeight="1">
+      <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="82.5" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" ht="243" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="32">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="A1:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" ht="276" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="32">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" ht="109.5" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="32">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11" ht="90">
+      <c r="A13" s="40"/>
+      <c r="B13" s="31">
+        <v>2</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="32">
+        <v>43074</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" ht="134.25" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="105" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="A1:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1013,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="38.25">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="98.25" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="20">
-        <v>43078</v>
-      </c>
-      <c r="J12" s="18"/>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1011,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="165">
+      <c r="A12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1454,33 +5692,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1491,13 +5729,13 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1508,18 +5746,18 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="25.5">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1532,10 +5770,10 @@
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1543,23 +5781,23 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1013,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="23">
         <v>1</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1618,82 +5856,936 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
+    <row r="10" spans="1:11" ht="51">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="119.25" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1013,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
     <row r="10" spans="1:11" ht="63.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="98.25" customHeight="1">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:11" ht="240">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="D12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="20">
-        <v>43078</v>
-      </c>
-      <c r="J12" s="18"/>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
       <c r="K12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="A1:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1013,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="135.75" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="75">
+      <c r="A13" s="27"/>
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="108" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="75">
+      <c r="A13" s="38"/>
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1715,33 +6807,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1752,13 +6845,13 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1769,11 +6862,11 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1793,10 +6886,10 @@
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1804,23 +6897,23 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <f>COUNTIF(F$10:H$1013,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
         <v>1</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1880,81 +6973,618 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="63.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="240">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:11" ht="105">
+      <c r="A12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="C12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="A1:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="75">
+      <c r="A12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="75">
+      <c r="A13" s="36"/>
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="20">
-        <v>43078</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="2"/>
+      <c r="I13" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+      <formula1>$K$2:$K$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="39">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f>COUNTIF(F$10:H$1012,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="63.75">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="92.25" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17">
+        <v>43074</v>
+      </c>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
